--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranhoanglong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA737C2-DDED-4671-AA90-A364A8078E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC53983-CB12-4EB1-9117-141CEBC25C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="API signup" sheetId="4" r:id="rId4"/>
     <sheet name="API forgorPassword" sheetId="5" r:id="rId5"/>
     <sheet name="API processResetPassword" sheetId="6" r:id="rId6"/>
-    <sheet name="API updateUserInfor" sheetId="7" r:id="rId7"/>
-    <sheet name="API getUserDetails" sheetId="8" r:id="rId8"/>
+    <sheet name="API getUserDetails" sheetId="8" r:id="rId7"/>
+    <sheet name="API updateUserInfor" sheetId="7" r:id="rId8"/>
     <sheet name="API getUserTimeline" sheetId="12" r:id="rId9"/>
     <sheet name="API insertPost" sheetId="10" r:id="rId10"/>
     <sheet name="API getPost" sheetId="13" r:id="rId11"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="278">
   <si>
     <t>Users</t>
   </si>
@@ -342,12 +342,6 @@
     <t>Tạo token</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -444,9 +438,6 @@
     <t>Format YYYY/MM/DD</t>
   </si>
   <si>
-    <t>/api/forgotPassword</t>
-  </si>
-  <si>
     <t xml:space="preserve">  reset_pasword_token varchar(30)</t>
   </si>
   <si>
@@ -456,12 +447,6 @@
     <t>Kiểm tra user có tồn tại trong DB hay không (dựa vào username, email)</t>
   </si>
   <si>
-    <t>Tạo token bằng RandomString(30)</t>
-  </si>
-  <si>
-    <t>Update token vào hạng mục reset_pasword_toke của bảng Users</t>
-  </si>
-  <si>
     <t>Tạo link có gắn token đã tạo ở trên</t>
   </si>
   <si>
@@ -474,9 +459,6 @@
     <t>resetPasswordToken</t>
   </si>
   <si>
-    <t>Kiểm tra có đung user muốn reset pass không (dựa vào username, resetPasswordToken)</t>
-  </si>
-  <si>
     <t>Nếu đúng</t>
   </si>
   <si>
@@ -859,6 +841,36 @@
   </si>
   <si>
     <t xml:space="preserve">  email varchar(100)</t>
+  </si>
+  <si>
+    <t>Username or emali is valid!</t>
+  </si>
+  <si>
+    <t>Kiểm tra có đung user muốn reset pass không (dựa vào username, email, resetPasswordToken)</t>
+  </si>
+  <si>
+    <t>Tạo token là chuỗi alphabetic ngẫu nhiên dài 30 ký tự</t>
+  </si>
+  <si>
+    <t>/api/auth/forgotPassword</t>
+  </si>
+  <si>
+    <t>/api/auth/processResetPassword</t>
+  </si>
+  <si>
+    <t>We have sent a reset password link to your email. Please check!</t>
+  </si>
+  <si>
+    <t>Password update succcessful!</t>
+  </si>
+  <si>
+    <t>Username or email or token is valid!</t>
+  </si>
+  <si>
+    <t>Userinfor updated!</t>
+  </si>
+  <si>
+    <t>0: nữ, 1: nam</t>
   </si>
 </sst>
 </file>
@@ -977,6 +989,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -989,9 +1004,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1374,18 +1386,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
   <dimension ref="A2:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="15:22">
-      <c r="O2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="O2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1395,130 +1407,130 @@
       <c r="V2" s="20"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="15" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="15:22">
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="15" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="17"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="15:22">
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="15" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="15:22">
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="15" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="15:22">
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="15" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="17"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="15:22">
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="11" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="13"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
     </row>
     <row r="9" spans="15:22">
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="15" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="15:22">
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="15" t="s">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="15:22">
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="15" t="s">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="17"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="15:22">
       <c r="O12" t="s">
@@ -1567,12 +1579,12 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -1607,7 +1619,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1627,7 +1639,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1807,7 +1819,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -1882,7 +1894,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -1892,367 +1904,361 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="R9:V9"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O2:Q2"/>
@@ -2267,6 +2273,12 @@
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="R2:V2"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="R9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2288,7 +2300,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2311,37 +2323,37 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -2358,64 +2370,64 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -2436,25 +2448,25 @@
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -2466,7 +2478,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
@@ -2498,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2509,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -2520,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -2534,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -2543,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
@@ -2553,7 +2565,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -2562,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2581,7 +2593,7 @@
       </c>
       <c r="D26" s="21"/>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2589,11 +2601,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="21"/>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2601,10 +2613,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2612,11 +2624,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2624,11 +2636,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2636,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2647,10 +2659,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2671,7 +2683,7 @@
       </c>
       <c r="D35" s="21"/>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -2679,11 +2691,11 @@
         <v>1</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="21"/>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -2691,11 +2703,11 @@
         <v>2</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D37" s="21"/>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -2703,10 +2715,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2719,13 +2731,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -2739,12 +2750,13 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2769,7 +2781,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2778,7 +2790,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -2792,37 +2804,37 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -2839,18 +2851,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2863,18 +2875,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2901,37 +2913,37 @@
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="22"/>
@@ -2946,12 +2958,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="22"/>
@@ -2965,13 +2977,13 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="22"/>
@@ -2986,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3004,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3022,12 +3034,12 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3042,12 +3054,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -3062,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3080,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3098,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3146,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3157,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3168,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -3182,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -3191,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
@@ -3201,7 +3213,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -3210,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -3221,6 +3233,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:L13"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="G9:L9"/>
@@ -3230,11 +3247,6 @@
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3258,7 +3270,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3281,37 +3293,37 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -3328,60 +3340,60 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -3402,25 +3414,25 @@
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -3432,7 +3444,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
@@ -3464,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3475,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3486,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -3500,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -3509,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
@@ -3519,7 +3531,7 @@
         <v>88</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -3528,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3547,7 +3559,7 @@
       </c>
       <c r="D26" s="21"/>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3555,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3566,10 +3578,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3577,15 +3589,15 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3593,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3610,7 +3622,7 @@
       </c>
       <c r="E33" s="21"/>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="3:7">
@@ -3618,11 +3630,11 @@
         <v>1</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E34" s="21"/>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="3:7">
@@ -3630,11 +3642,11 @@
         <v>2</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E35" s="21"/>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="3:7">
@@ -3642,21 +3654,14 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="B4:D4"/>
@@ -3670,6 +3675,13 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G10:L10"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3688,7 +3700,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3711,37 +3723,37 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -3758,64 +3770,64 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -3836,25 +3848,25 @@
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -3866,7 +3878,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
@@ -3898,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3909,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3920,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -3934,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -3943,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
@@ -3953,7 +3965,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -3962,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3981,7 +3993,7 @@
       </c>
       <c r="D26" s="21"/>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3989,11 +4001,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="21"/>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4001,10 +4013,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4012,11 +4024,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4024,11 +4036,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4036,10 +4048,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4047,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -4071,7 +4083,7 @@
       </c>
       <c r="D35" s="21"/>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -4079,11 +4091,11 @@
         <v>1</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="21"/>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -4091,11 +4103,11 @@
         <v>2</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D37" s="21"/>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -4103,19 +4115,20 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
@@ -4129,12 +4142,11 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4145,7 +4157,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4180,25 +4192,25 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4210,7 +4222,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -4232,7 +4244,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
@@ -4259,37 +4271,37 @@
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="22"/>
@@ -4309,7 +4321,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="22"/>
@@ -4358,32 +4370,32 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="2:6">
       <c r="D18" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="2:6">
       <c r="D19" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4409,26 +4421,26 @@
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:6">
       <c r="D24" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="D25" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -4446,26 +4458,26 @@
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:6">
       <c r="D28" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="D29" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -4560,6 +4572,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="G10:L10"/>
@@ -4567,13 +4586,6 @@
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4581,10 +4593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0DE42E-98BF-453D-9140-687A190F6884}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4621,37 +4633,37 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -4664,175 +4676,199 @@
       <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="F6" s="8"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:6">
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="D19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19">
+      <c r="E19" s="9"/>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>271</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:6">
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="D22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" t="s">
-        <v>267</v>
+      <c r="E22" s="9"/>
+      <c r="F22" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4840,10 +4876,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB115A13-9B20-4323-A93A-95D2E5F91F9A}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4880,67 +4916,67 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -4952,7 +4988,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
@@ -4974,7 +5010,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>66</v>
@@ -4991,17 +5027,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -5010,22 +5048,20 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -5033,429 +5069,455 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="F11" s="8"/>
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="10">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="9"/>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+      <c r="D24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="F27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="D28" s="21"/>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D31" s="21"/>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="21"/>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D33" s="21"/>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D34" s="21"/>
       <c r="F34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="F35" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="D38" s="21"/>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="F39">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="21"/>
-      <c r="F40" t="s">
-        <v>103</v>
+      <c r="F40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="21"/>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="21"/>
       <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="L44" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D45" s="21"/>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="L45" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D46" s="21"/>
       <c r="F46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="9"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>272</v>
+      <c r="C50" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="G11:L11"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5466,7 +5528,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5480,7 +5542,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5503,25 +5565,25 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5533,7 +5595,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -5555,7 +5617,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
@@ -5586,59 +5648,59 @@
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10">
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="24"/>
@@ -5668,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -5690,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -5699,7 +5761,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
@@ -5709,7 +5771,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
@@ -5719,26 +5781,26 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
       <c r="D21" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6">
       <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -5754,24 +5816,24 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:6">
       <c r="D25" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="D26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -5828,11 +5890,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C29:D29"/>
@@ -5849,12 +5912,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5865,7 +5927,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5878,7 +5940,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5901,25 +5963,25 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5931,7 +5993,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -5947,100 +6009,431 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="F8" s="8"/>
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="E25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F22665-80BE-4C66-A9B9-B038FD257DE6}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -6049,146 +6442,285 @@
       <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="E25" s="9"/>
+    <row r="34" spans="3:4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
+  <mergeCells count="29">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C68E1-E184-43A3-9705-B9855BD70193}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L44"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6202,7 +6734,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6225,25 +6757,25 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6255,7 +6787,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -6277,493 +6809,412 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="21"/>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="F25" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="D28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="B31" t="s">
-        <v>0</v>
+      <c r="C31" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="F31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="21"/>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
       <c r="F33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="B34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D34" s="21"/>
       <c r="F34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="B35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="21"/>
       <c r="F35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="F38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="F39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="F40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="F43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="F44" t="s">
-        <v>121</v>
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B19:D19"/>
+  <mergeCells count="36">
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:D7"/>
@@ -6773,540 +7224,26 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F22665-80BE-4C66-A9B9-B038FD257DE6}">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="D27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7317,7 +7254,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L29"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7327,7 +7264,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7336,7 +7273,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -7350,25 +7287,25 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7380,7 +7317,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
@@ -7396,25 +7333,25 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -7435,37 +7372,37 @@
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="22"/>
@@ -7485,7 +7422,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="22"/>
@@ -7499,13 +7436,13 @@
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="22"/>
@@ -7535,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7546,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -7557,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -7571,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -7580,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
@@ -7590,7 +7527,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7599,7 +7536,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -7623,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7631,7 +7568,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7639,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7652,6 +7589,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C31:D31"/>
@@ -7665,12 +7608,6 @@
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranhoanglong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC53983-CB12-4EB1-9117-141CEBC25C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250DC693-69C2-4685-B840-0B052616A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="283">
   <si>
     <t>Users</t>
   </si>
@@ -489,18 +489,12 @@
     <t>otherInfor</t>
   </si>
   <si>
-    <t>tokenAccess</t>
-  </si>
-  <si>
     <t>Nếu chính xác</t>
   </si>
   <si>
     <t>Kiểm tra token xác thực có chính xác</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
     <t>Tiếp tục xử lý</t>
   </si>
   <si>
@@ -871,6 +865,27 @@
   </si>
   <si>
     <t>0: nữ, 1: nam</t>
+  </si>
+  <si>
+    <t>Request.sex</t>
+  </si>
+  <si>
+    <t>Request.studyAt</t>
+  </si>
+  <si>
+    <t>Request.workingAt</t>
+  </si>
+  <si>
+    <t>Request.otherInfor</t>
+  </si>
+  <si>
+    <t>other_infor</t>
+  </si>
+  <si>
+    <t>Request.favorites</t>
+  </si>
+  <si>
+    <t>Insert post successful!</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
   <dimension ref="A2:V202"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1579,7 +1594,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -1619,7 +1634,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1639,7 +1654,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1819,7 +1834,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -1894,7 +1909,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -1904,357 +1919,357 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2287,20 +2302,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B531E5D-48DC-48D8-BDF9-280878635517}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2348,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -2370,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2392,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -2414,12 +2432,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
@@ -2473,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2510,234 +2528,179 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="D22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="D27" s="21"/>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
       <c r="F30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="F35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="F36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="F37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="24">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:L11"/>
@@ -2748,15 +2711,13 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2781,7 +2742,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2790,7 +2751,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -2829,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2851,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2862,7 +2823,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2875,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2886,7 +2847,7 @@
         <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2958,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2978,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -2998,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3016,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3034,12 +2995,12 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3054,12 +3015,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -3074,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3092,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3110,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3158,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3169,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3180,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -3194,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -3213,7 +3174,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -3222,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -3270,7 +3231,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3318,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -3340,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3360,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -3380,12 +3341,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
@@ -3476,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3487,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3498,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -3512,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -3531,7 +3492,7 @@
         <v>88</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -3540,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3567,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3578,10 +3539,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3592,12 +3553,12 @@
         <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3605,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3634,7 +3595,7 @@
       </c>
       <c r="E34" s="21"/>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="3:7">
@@ -3642,11 +3603,11 @@
         <v>2</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E35" s="21"/>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="3:7">
@@ -3654,10 +3615,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3661,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3748,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -3770,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3792,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -3814,12 +3775,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
@@ -3910,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3921,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3932,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -3946,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -3965,7 +3926,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -3974,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -4005,7 +3966,7 @@
       </c>
       <c r="D27" s="21"/>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4013,10 +3974,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4024,11 +3985,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4036,11 +3997,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4051,7 +4012,7 @@
         <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4062,7 +4023,7 @@
         <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -4095,7 +4056,7 @@
       </c>
       <c r="D36" s="21"/>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -4103,11 +4064,11 @@
         <v>2</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="21"/>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -4115,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4296,12 +4257,12 @@
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="22"/>
@@ -4321,7 +4282,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="22"/>
@@ -4370,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -4386,16 +4347,16 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4436,11 +4397,11 @@
     </row>
     <row r="25" spans="2:6">
       <c r="D25" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -4458,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -4473,11 +4434,11 @@
     </row>
     <row r="29" spans="2:6">
       <c r="D29" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -4680,12 +4641,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
@@ -4842,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -4852,7 +4813,7 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5038,7 +4999,7 @@
         <v>66</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -5287,7 +5248,7 @@
       </c>
       <c r="D31" s="21"/>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5437,7 +5398,7 @@
         <v>101</v>
       </c>
       <c r="L45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -5475,7 +5436,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5542,7 +5503,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5752,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -5791,7 +5752,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5825,7 +5786,7 @@
         <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -5940,7 +5901,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6152,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6203,7 +6164,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6229,7 +6190,7 @@
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -6260,10 +6221,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F22665-80BE-4C66-A9B9-B038FD257DE6}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6273,7 +6234,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6282,7 +6243,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -6382,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -6403,33 +6364,33 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
@@ -6446,12 +6407,12 @@
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="22"/>
@@ -6466,12 +6427,12 @@
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="22"/>
@@ -6486,7 +6447,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -6506,7 +6467,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
@@ -6526,7 +6487,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
@@ -6546,7 +6507,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -6562,155 +6523,185 @@
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
       <c r="B22" t="s">
-        <v>163</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:12">
       <c r="B23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6718,9 +6709,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C68E1-E184-43A3-9705-B9855BD70193}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6734,7 +6727,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6782,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -7040,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -7083,7 +7076,7 @@
       </c>
       <c r="D25" s="21"/>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -7124,11 +7117,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -7136,22 +7129,23 @@
         <v>2</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="21"/>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
+      <c r="C32" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="21"/>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7159,22 +7153,21 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="21"/>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7182,67 +7175,80 @@
         <v>6</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D35" s="21"/>
       <c r="F35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="F36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="38" spans="1:6">
+      <c r="A38">
         <v>2</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" t="s">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
-        <v>276</v>
+      <c r="C39" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G11:L11"/>
+  <mergeCells count="37">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:L17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7251,10 +7257,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663BC413-9A1A-428C-A278-DB02C3644C58}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7264,7 +7270,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7273,7 +7279,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -7312,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -7330,77 +7336,73 @@
       <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
@@ -7413,199 +7415,83 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="F15" s="9"/>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16">
-        <v>1</v>
-      </c>
       <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+    <row r="20" spans="2:4">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="15">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
   </mergeCells>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250DC693-69C2-4685-B840-0B052616A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE9E703-F743-4C5D-B33A-48403B8775C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="285">
   <si>
     <t>Users</t>
   </si>
@@ -603,15 +603,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">  content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  createTs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  updateTs</t>
-  </si>
-  <si>
     <t>List[String]</t>
   </si>
   <si>
@@ -624,9 +615,6 @@
     <t>postId</t>
   </si>
   <si>
-    <t>"Update post failed!"</t>
-  </si>
-  <si>
     <t>Nếu capturesUrl khác rỗng thì thực hiện xử lý dưới:</t>
   </si>
   <si>
@@ -636,9 +624,6 @@
     <t>Request.postId</t>
   </si>
   <si>
-    <t xml:space="preserve">Lấy thông tin bài post từ table </t>
-  </si>
-  <si>
     <t xml:space="preserve">  sex char(1)</t>
   </si>
   <si>
@@ -886,6 +871,27 @@
   </si>
   <si>
     <t>Insert post successful!</t>
+  </si>
+  <si>
+    <t>commentId</t>
+  </si>
+  <si>
+    <t>Lấy thông tin bài post dựa theo điều kiện thời gian nhập vào</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>captures</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  count_like int</t>
+  </si>
+  <si>
+    <t>userIdLike</t>
   </si>
 </sst>
 </file>
@@ -980,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1003,6 +1009,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1399,153 +1411,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
-  <dimension ref="A2:V202"/>
+  <dimension ref="A2:V203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="15:22">
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="11" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="13"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="15"/>
     </row>
     <row r="4" spans="15:22">
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="11" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
     </row>
     <row r="5" spans="15:22">
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="11" t="s">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
     </row>
     <row r="6" spans="15:22">
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="11" t="s">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
     </row>
     <row r="7" spans="15:22">
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="11" t="s">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="13"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="15"/>
     </row>
     <row r="8" spans="15:22">
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="14" t="s">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="18"/>
     </row>
     <row r="9" spans="15:22">
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="11" t="s">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="15:22">
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="11" t="s">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="15"/>
     </row>
     <row r="11" spans="15:22">
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="12" spans="15:22">
       <c r="O12" t="s">
@@ -1594,7 +1606,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -1634,7 +1646,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1654,7 +1666,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1764,512 +1776,517 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>224</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>227</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>231</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>238</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2322,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2341,111 +2358,111 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -2455,63 +2472,63 @@
         <v>69</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
@@ -2542,10 +2559,10 @@
       <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="23"/>
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -2554,10 +2571,10 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="23"/>
       <c r="F19" t="s">
         <v>168</v>
       </c>
@@ -2577,10 +2594,10 @@
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="23"/>
       <c r="F21" t="s">
         <v>169</v>
       </c>
@@ -2589,10 +2606,10 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="23"/>
       <c r="F22" t="s">
         <v>170</v>
       </c>
@@ -2620,8 +2637,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
@@ -2632,10 +2649,10 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="23"/>
       <c r="F27" t="s">
         <v>110</v>
       </c>
@@ -2644,10 +2661,10 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="23"/>
       <c r="F28" t="s">
         <v>168</v>
       </c>
@@ -2656,10 +2673,10 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="23"/>
       <c r="F29" t="s">
         <v>173</v>
       </c>
@@ -2689,7 +2706,7 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2725,11 +2742,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9741B43-0528-4C13-ACB0-D9D8E77CEC58}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2765,25 +2780,25 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2800,12 +2815,12 @@
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -2863,96 +2878,98 @@
         <v>69</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -3000,7 +3017,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3014,13 +3031,13 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>187</v>
+      <c r="B17" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -3035,11 +3052,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -3052,12 +3071,14 @@
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>189</v>
+      <c r="B19" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3070,12 +3091,14 @@
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>190</v>
+      <c r="B20" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3085,122 +3108,221 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="F21" s="8"/>
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="F22" s="8"/>
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:12">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="F25" s="8"/>
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="9"/>
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="F28" s="9"/>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29">
-        <v>1</v>
-      </c>
       <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="C31">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33">
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="C34">
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="D35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
@@ -3215,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A3DABE-BC2B-49F5-BAA8-DCC8E3AC3D4B}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3231,7 +3353,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3254,395 +3376,354 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="F9" s="8"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="5" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="1" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="F13" s="8"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
+      <c r="B17" t="s">
+        <v>163</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20">
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="G27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
+      <c r="D28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="G28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="G33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="G34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="G35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D29" t="s">
         <v>174</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G29" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
+  <mergeCells count="21">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3661,7 +3742,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3684,111 +3765,111 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -3798,63 +3879,63 @@
         <v>69</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
@@ -3949,10 +4030,10 @@
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="23"/>
       <c r="F26" t="s">
         <v>110</v>
       </c>
@@ -3961,10 +4042,10 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="23"/>
       <c r="F27" t="s">
         <v>168</v>
       </c>
@@ -3984,10 +4065,10 @@
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="23"/>
       <c r="F29" t="s">
         <v>169</v>
       </c>
@@ -3996,10 +4077,10 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="23"/>
       <c r="F30" t="s">
         <v>170</v>
       </c>
@@ -4027,8 +4108,8 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
@@ -4039,10 +4120,10 @@
       <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="23"/>
       <c r="F35" t="s">
         <v>110</v>
       </c>
@@ -4051,10 +4132,10 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="23"/>
       <c r="F36" t="s">
         <v>168</v>
       </c>
@@ -4063,10 +4144,10 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="23"/>
       <c r="F37" t="s">
         <v>173</v>
       </c>
@@ -4153,149 +4234,149 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -4331,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -4347,16 +4428,16 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4397,11 +4478,11 @@
     </row>
     <row r="25" spans="2:6">
       <c r="D25" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -4419,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -4434,11 +4515,11 @@
     </row>
     <row r="29" spans="2:6">
       <c r="D29" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -4594,69 +4675,69 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -4666,61 +4747,61 @@
         <v>69</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:12">
@@ -4803,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -4813,7 +4894,7 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4877,181 +4958,181 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="G9" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
       <c r="F12" s="8"/>
@@ -5061,61 +5142,61 @@
         <v>69</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
@@ -5207,10 +5288,10 @@
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="23"/>
       <c r="F28" t="s">
         <v>110</v>
       </c>
@@ -5219,10 +5300,10 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="23"/>
       <c r="F29" t="s">
         <v>115</v>
       </c>
@@ -5231,10 +5312,10 @@
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="23"/>
       <c r="F30" t="s">
         <v>116</v>
       </c>
@@ -5243,10 +5324,10 @@
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="23"/>
       <c r="F31" t="s">
         <v>155</v>
       </c>
@@ -5255,10 +5336,10 @@
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="23"/>
       <c r="F32" t="s">
         <v>117</v>
       </c>
@@ -5267,10 +5348,10 @@
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="23"/>
       <c r="F33" t="s">
         <v>118</v>
       </c>
@@ -5279,10 +5360,10 @@
       <c r="B34">
         <v>6</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="23"/>
       <c r="F34" t="s">
         <v>119</v>
       </c>
@@ -5291,10 +5372,10 @@
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="23"/>
       <c r="F35" t="s">
         <v>119</v>
       </c>
@@ -5308,10 +5389,10 @@
       <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="23"/>
       <c r="F38" t="s">
         <v>110</v>
       </c>
@@ -5320,10 +5401,10 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="23"/>
       <c r="F39" t="s">
         <v>121</v>
       </c>
@@ -5332,10 +5413,10 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="23"/>
       <c r="F40">
         <v>1</v>
       </c>
@@ -5344,10 +5425,10 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="23"/>
       <c r="F41" t="s">
         <v>101</v>
       </c>
@@ -5356,10 +5437,10 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="23"/>
       <c r="F42" t="s">
         <v>101</v>
       </c>
@@ -5390,10 +5471,10 @@
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="23"/>
       <c r="F45" t="s">
         <v>101</v>
       </c>
@@ -5405,10 +5486,10 @@
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="23"/>
       <c r="F46" t="s">
         <v>119</v>
       </c>
@@ -5417,10 +5498,10 @@
       <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="23"/>
       <c r="F47" t="s">
         <v>119</v>
       </c>
@@ -5436,7 +5517,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5503,7 +5584,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5526,69 +5607,69 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -5598,83 +5679,83 @@
         <v>69</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:12">
@@ -5713,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -5752,7 +5833,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5786,7 +5867,7 @@
         <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -5798,56 +5879,56 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5901,7 +5982,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5924,113 +6005,113 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -6040,63 +6121,63 @@
         <v>69</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
@@ -6113,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6164,7 +6245,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6190,7 +6271,7 @@
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -6257,47 +6338,47 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
@@ -6307,245 +6388,245 @@
         <v>69</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:12">
@@ -6576,10 +6657,10 @@
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25">
@@ -6662,12 +6743,12 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -6750,207 +6831,207 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="8"/>
@@ -6960,63 +7041,63 @@
         <v>69</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:12">
@@ -7047,10 +7128,10 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="23"/>
       <c r="F23" t="s">
         <v>110</v>
       </c>
@@ -7059,10 +7140,10 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="23"/>
       <c r="F24" t="s">
         <v>116</v>
       </c>
@@ -7071,10 +7152,10 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="23"/>
       <c r="F25" t="s">
         <v>155</v>
       </c>
@@ -7083,17 +7164,17 @@
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="23"/>
       <c r="F26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
@@ -7104,10 +7185,10 @@
       <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="23"/>
       <c r="F29" t="s">
         <v>110</v>
       </c>
@@ -7116,36 +7197,36 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="23"/>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="23"/>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="23"/>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7153,10 +7234,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7174,22 +7255,22 @@
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="23"/>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="23"/>
       <c r="F36" t="s">
         <v>119</v>
       </c>
@@ -7208,7 +7289,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7221,17 +7302,17 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
@@ -7241,15 +7322,15 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:L17"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7260,7 +7341,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7293,47 +7374,47 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
@@ -7343,81 +7424,81 @@
         <v>69</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:12">
@@ -7448,10 +7529,10 @@
       <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
@@ -7470,12 +7551,12 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranhoanglong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE9E703-F743-4C5D-B33A-48403B8775C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC53983-CB12-4EB1-9117-141CEBC25C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="278">
   <si>
     <t>Users</t>
   </si>
@@ -489,12 +489,18 @@
     <t>otherInfor</t>
   </si>
   <si>
+    <t>tokenAccess</t>
+  </si>
+  <si>
     <t>Nếu chính xác</t>
   </si>
   <si>
     <t>Kiểm tra token xác thực có chính xác</t>
   </si>
   <si>
+    <t>Header</t>
+  </si>
+  <si>
     <t>Tiếp tục xử lý</t>
   </si>
   <si>
@@ -603,6 +609,15 @@
     <t>comment</t>
   </si>
   <si>
+    <t xml:space="preserve">  content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  createTs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  updateTs</t>
+  </si>
+  <si>
     <t>List[String]</t>
   </si>
   <si>
@@ -615,6 +630,9 @@
     <t>postId</t>
   </si>
   <si>
+    <t>"Update post failed!"</t>
+  </si>
+  <si>
     <t>Nếu capturesUrl khác rỗng thì thực hiện xử lý dưới:</t>
   </si>
   <si>
@@ -624,6 +642,9 @@
     <t>Request.postId</t>
   </si>
   <si>
+    <t xml:space="preserve">Lấy thông tin bài post từ table </t>
+  </si>
+  <si>
     <t xml:space="preserve">  sex char(1)</t>
   </si>
   <si>
@@ -850,48 +871,6 @@
   </si>
   <si>
     <t>0: nữ, 1: nam</t>
-  </si>
-  <si>
-    <t>Request.sex</t>
-  </si>
-  <si>
-    <t>Request.studyAt</t>
-  </si>
-  <si>
-    <t>Request.workingAt</t>
-  </si>
-  <si>
-    <t>Request.otherInfor</t>
-  </si>
-  <si>
-    <t>other_infor</t>
-  </si>
-  <si>
-    <t>Request.favorites</t>
-  </si>
-  <si>
-    <t>Insert post successful!</t>
-  </si>
-  <si>
-    <t>commentId</t>
-  </si>
-  <si>
-    <t>Lấy thông tin bài post dựa theo điều kiện thời gian nhập vào</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>captures</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  count_like int</t>
-  </si>
-  <si>
-    <t>userIdLike</t>
   </si>
 </sst>
 </file>
@@ -986,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1009,12 +988,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1411,153 +1384,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
-  <dimension ref="A2:V203"/>
+  <dimension ref="A2:V202"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="15:22">
-      <c r="O2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20" t="s">
+      <c r="O2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="15"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="15:22">
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="13" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="15:22">
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="13" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="15:22">
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="13" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="15"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="15:22">
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="13" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="15"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="15:22">
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="16" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="18"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
     </row>
     <row r="9" spans="15:22">
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="13" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="15"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="15:22">
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="13" t="s">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="15"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="15:22">
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="13" t="s">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="15:22">
       <c r="O12" t="s">
@@ -1606,7 +1579,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -1646,7 +1619,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1666,7 +1639,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1776,517 +1749,512 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2319,23 +2287,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B531E5D-48DC-48D8-BDF9-280878635517}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2358,111 +2323,111 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -2472,63 +2437,63 @@
         <v>69</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
@@ -2545,179 +2510,234 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="F19" t="s">
-        <v>168</v>
-      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" t="s">
-        <v>178</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="F21" t="s">
-        <v>169</v>
-      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="F22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" t="s">
-        <v>171</v>
-      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="F26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="23"/>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="21"/>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>277</v>
-      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:L11"/>
@@ -2728,13 +2748,15 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2742,9 +2764,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9741B43-0528-4C13-ACB0-D9D8E77CEC58}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2757,7 +2781,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2766,7 +2790,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -2780,32 +2804,32 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2815,19 +2839,19 @@
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2838,7 +2862,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2851,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2862,7 +2886,7 @@
         <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2878,105 +2902,103 @@
         <v>69</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2994,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3012,12 +3034,12 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3031,13 +3053,13 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>284</v>
+      <c r="B17" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -3052,13 +3074,11 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -3071,14 +3091,12 @@
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>278</v>
+      <c r="B19" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3091,14 +3109,12 @@
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>164</v>
+      <c r="B20" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3108,221 +3124,122 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>11</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>12</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:12">
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" t="s">
-        <v>280</v>
-      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:12">
+      <c r="A29">
+        <v>1</v>
+      </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:12">
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33">
-        <v>4</v>
-      </c>
       <c r="C33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
+        <v>155</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="D35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2</v>
+      </c>
       <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>177</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
@@ -3337,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A3DABE-BC2B-49F5-BAA8-DCC8E3AC3D4B}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3353,7 +3270,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3376,354 +3293,395 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="F14" s="8"/>
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>163</v>
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="F19" t="s">
+      <c r="D26" s="21"/>
+      <c r="F26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21">
+    <row r="27" spans="1:6">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="G34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="B22">
+    <row r="35" spans="3:7">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="G27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="G28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" t="s">
-        <v>175</v>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
+  <mergeCells count="20">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3742,7 +3700,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3765,111 +3723,111 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -3879,63 +3837,63 @@
         <v>69</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
@@ -3952,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3963,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3974,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -3988,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -4007,7 +3965,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -4016,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -4030,10 +3988,10 @@
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="21"/>
       <c r="F26" t="s">
         <v>110</v>
       </c>
@@ -4042,12 +4000,12 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="21"/>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4055,34 +4013,34 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="23"/>
+      <c r="C29" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="23"/>
+      <c r="C30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4093,7 +4051,7 @@
         <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4104,12 +4062,12 @@
         <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
@@ -4120,10 +4078,10 @@
       <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="21"/>
       <c r="F35" t="s">
         <v>110</v>
       </c>
@@ -4132,24 +4090,24 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="23"/>
+      <c r="D36" s="21"/>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="23"/>
+      <c r="C37" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="21"/>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -4157,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4234,149 +4192,149 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -4412,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -4428,16 +4386,16 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4478,11 +4436,11 @@
     </row>
     <row r="25" spans="2:6">
       <c r="D25" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -4500,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -4515,11 +4473,11 @@
     </row>
     <row r="29" spans="2:6">
       <c r="D29" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -4675,69 +4633,69 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -4747,61 +4705,61 @@
         <v>69</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:12">
@@ -4884,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -4894,7 +4852,7 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4958,181 +4916,181 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="G9" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
       <c r="F12" s="8"/>
@@ -5142,61 +5100,61 @@
         <v>69</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
@@ -5288,10 +5246,10 @@
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="21"/>
       <c r="F28" t="s">
         <v>110</v>
       </c>
@@ -5300,10 +5258,10 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="21"/>
       <c r="F29" t="s">
         <v>115</v>
       </c>
@@ -5312,10 +5270,10 @@
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="21"/>
       <c r="F30" t="s">
         <v>116</v>
       </c>
@@ -5324,22 +5282,22 @@
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="21"/>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="21"/>
       <c r="F32" t="s">
         <v>117</v>
       </c>
@@ -5348,10 +5306,10 @@
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="21"/>
       <c r="F33" t="s">
         <v>118</v>
       </c>
@@ -5360,10 +5318,10 @@
       <c r="B34">
         <v>6</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="21"/>
       <c r="F34" t="s">
         <v>119</v>
       </c>
@@ -5372,10 +5330,10 @@
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="21"/>
       <c r="F35" t="s">
         <v>119</v>
       </c>
@@ -5389,10 +5347,10 @@
       <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="21"/>
       <c r="F38" t="s">
         <v>110</v>
       </c>
@@ -5401,10 +5359,10 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="21"/>
       <c r="F39" t="s">
         <v>121</v>
       </c>
@@ -5413,10 +5371,10 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="21"/>
       <c r="F40">
         <v>1</v>
       </c>
@@ -5425,10 +5383,10 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="21"/>
       <c r="F41" t="s">
         <v>101</v>
       </c>
@@ -5437,10 +5395,10 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="21"/>
       <c r="F42" t="s">
         <v>101</v>
       </c>
@@ -5471,25 +5429,25 @@
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="21"/>
       <c r="F45" t="s">
         <v>101</v>
       </c>
       <c r="L45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="23"/>
+      <c r="D46" s="21"/>
       <c r="F46" t="s">
         <v>119</v>
       </c>
@@ -5498,10 +5456,10 @@
       <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="23"/>
+      <c r="D47" s="21"/>
       <c r="F47" t="s">
         <v>119</v>
       </c>
@@ -5517,7 +5475,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5584,7 +5542,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5607,69 +5565,69 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -5679,83 +5637,83 @@
         <v>69</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:12">
@@ -5794,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -5833,7 +5791,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5867,7 +5825,7 @@
         <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -5879,56 +5837,56 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5982,7 +5940,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6005,113 +5963,113 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -6121,63 +6079,63 @@
         <v>69</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
@@ -6194,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6245,7 +6203,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6271,7 +6229,7 @@
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -6302,10 +6260,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F22665-80BE-4C66-A9B9-B038FD257DE6}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6315,7 +6273,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6324,7 +6282,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -6338,47 +6296,47 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
@@ -6388,401 +6346,371 @@
         <v>69</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="F19" s="8"/>
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="F21" s="9"/>
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22">
-        <v>1</v>
-      </c>
       <c r="B22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="B23" t="s">
-        <v>161</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="23"/>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="B29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="29">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:L13"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6790,11 +6718,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C68E1-E184-43A3-9705-B9855BD70193}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C39"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6808,7 +6734,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6831,207 +6757,207 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="8"/>
@@ -7041,63 +6967,63 @@
         <v>69</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:12">
@@ -7114,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -7128,10 +7054,10 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="21"/>
       <c r="F23" t="s">
         <v>110</v>
       </c>
@@ -7140,10 +7066,10 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="21"/>
       <c r="F24" t="s">
         <v>116</v>
       </c>
@@ -7152,29 +7078,29 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="21"/>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="21"/>
       <c r="F26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
@@ -7185,10 +7111,10 @@
       <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="21"/>
       <c r="F29" t="s">
         <v>110</v>
       </c>
@@ -7197,36 +7123,35 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="23"/>
+      <c r="C30" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="23"/>
+      <c r="C31" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="21"/>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="23"/>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7234,103 +7159,91 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
+      <c r="C34" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="21"/>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="23"/>
+      <c r="C35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="21"/>
       <c r="F35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>269</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
+    <mergeCell ref="G11:L11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:L17"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:L17"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7338,10 +7251,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663BC413-9A1A-428C-A278-DB02C3644C58}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7351,7 +7264,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7360,7 +7273,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -7374,205 +7287,325 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="F6" s="8"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" t="s">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16" t="s">
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+    <row r="31" spans="1:6">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
   </mergeCells>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrainingWebApi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrainingWebApi\TrainingWebApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B038DF-3C70-4559-BAC7-C082F904C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E5F4F7-45CE-4109-97E3-12C5D80C3D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -1029,6 +1029,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1041,9 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1426,18 +1426,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
   <dimension ref="A2:V106"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="15:22">
-      <c r="O2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="O2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1447,130 +1447,130 @@
       <c r="V2" s="21"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="15:22">
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="18"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="15:22">
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="16" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="18"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="15:22">
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="16" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="18"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="15:22">
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="16" t="s">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="18"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="15:22">
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="12" t="s">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
     </row>
     <row r="9" spans="15:22">
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="16" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="18"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="15:22">
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="16" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="18"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="15:22">
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="16" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
@@ -1914,12 +1914,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="R9:V9"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O2:Q2"/>
@@ -1934,6 +1928,12 @@
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="R2:V2"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="R9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1983,25 +1983,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2038,152 +2038,152 @@
         <v>122</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="8"/>
@@ -2204,25 +2204,25 @@
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
@@ -2445,28 +2445,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
@@ -2481,6 +2459,28 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2527,25 +2527,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2584,54 +2584,54 @@
       <c r="F6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -2652,25 +2652,25 @@
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -2880,11 +2880,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -2898,12 +2899,11 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2951,25 +2951,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3082,25 +3082,25 @@
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -3146,11 +3146,11 @@
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1" t="s">
         <v>179</v>
       </c>
@@ -3390,6 +3390,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -3398,11 +3403,6 @@
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3450,25 +3450,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3511,25 +3511,25 @@
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -3575,11 +3575,11 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1" t="s">
         <v>179</v>
       </c>
@@ -3824,11 +3824,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
@@ -3836,6 +3831,11 @@
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3882,25 +3882,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3915,52 +3915,52 @@
         <v>122</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
@@ -3981,25 +3981,25 @@
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -4184,13 +4184,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B4:D4"/>
@@ -4202,6 +4195,13 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G9:L9"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4248,25 +4248,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4331,25 +4331,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -4531,6 +4531,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
@@ -4541,12 +4547,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4590,25 +4590,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4669,12 +4669,12 @@
       <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
@@ -4695,25 +4695,25 @@
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -4869,6 +4869,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="G9:L9"/>
@@ -4879,14 +4887,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4930,25 +4930,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4965,12 +4965,12 @@
       <c r="F5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
@@ -4991,25 +4991,25 @@
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5120,19 +5120,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5179,25 +5179,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5240,25 +5240,25 @@
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5381,25 +5381,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5464,25 +5464,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -5612,11 +5612,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G8:L8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -5624,6 +5619,11 @@
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5669,25 +5669,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5748,25 +5748,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -6049,6 +6049,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="G10:L10"/>
@@ -6056,13 +6063,6 @@
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6109,25 +6109,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6192,25 +6192,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -6387,25 +6387,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6470,25 +6470,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -6618,11 +6618,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
@@ -6630,6 +6625,11 @@
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6676,25 +6676,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6759,25 +6759,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -6896,11 +6896,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
@@ -6908,6 +6903,11 @@
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6917,7 +6917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A366CC-89AC-4D29-BA50-FFB24D19FA87}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6954,25 +6954,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7041,25 +7041,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -7140,11 +7140,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
@@ -7152,6 +7147,11 @@
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7199,25 +7199,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7282,25 +7282,25 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -7482,67 +7482,67 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -7677,25 +7677,25 @@
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="10">
@@ -8046,6 +8046,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="C45:D45"/>
@@ -8062,28 +8084,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8131,25 +8131,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -8214,47 +8214,47 @@
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10">
@@ -8456,11 +8456,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C29:D29"/>
@@ -8477,12 +8478,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8529,25 +8529,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -8597,45 +8597,45 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
@@ -8656,25 +8656,25 @@
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -8803,6 +8803,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
@@ -8811,14 +8819,6 @@
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8862,25 +8862,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -8919,25 +8919,25 @@
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -8963,11 +8963,11 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>122</v>
       </c>
@@ -9052,13 +9052,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G7:L7"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B9:D9"/>
@@ -9067,6 +9060,13 @@
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9110,25 +9110,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -9171,25 +9171,25 @@
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -9215,11 +9215,11 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>122</v>
       </c>
@@ -9304,6 +9304,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -9314,11 +9319,6 @@
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9365,25 +9365,25 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -9426,69 +9426,69 @@
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -9516,11 +9516,11 @@
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1" t="s">
         <v>122</v>
       </c>
@@ -9536,11 +9536,11 @@
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1" t="s">
         <v>179</v>
       </c>
@@ -9556,11 +9556,11 @@
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1" t="s">
         <v>122</v>
       </c>
@@ -9576,11 +9576,11 @@
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1" t="s">
         <v>122</v>
       </c>
@@ -9596,11 +9596,11 @@
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="1" t="s">
         <v>122</v>
       </c>
@@ -9616,11 +9616,11 @@
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1" t="s">
         <v>122</v>
       </c>
@@ -9636,11 +9636,11 @@
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1" t="s">
         <v>122</v>
       </c>
@@ -9781,6 +9781,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:L13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:L15"/>
@@ -9793,25 +9812,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RunTestJunit\TrainingWebApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DA292-656E-4E0B-99C8-72A2C698650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81113EB-C872-4C1A-B91E-7D6E87656ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="319">
   <si>
     <t>Users</t>
   </si>
@@ -172,12 +172,6 @@
     <t>Table roles{</t>
   </si>
   <si>
-    <t xml:space="preserve">  id varchar(36) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  role_id varchar(36)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  role_name varchar(50)</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>Format YYYY/MM/DD</t>
   </si>
   <si>
-    <t xml:space="preserve">  reset_pasword_token varchar(30)</t>
-  </si>
-  <si>
     <t>Kiểm tra user có tồn tại trong DB hay không (dựa vào username, email)</t>
   </si>
   <si>
@@ -538,15 +529,9 @@
     <t>Request.postId</t>
   </si>
   <si>
-    <t xml:space="preserve">  sex char(1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  other_infor varchar(1024)</t>
   </si>
   <si>
-    <t xml:space="preserve">  user_id varchar(36) </t>
-  </si>
-  <si>
     <t>Ref: users.id &lt; user_roles.user_id</t>
   </si>
   <si>
@@ -571,9 +556,6 @@
     <t xml:space="preserve">  `password` varchar(100),</t>
   </si>
   <si>
-    <t xml:space="preserve">  `reset_pasword_token` varchar(30),</t>
-  </si>
-  <si>
     <t xml:space="preserve">  `create_ts` timestamp,</t>
   </si>
   <si>
@@ -589,9 +571,6 @@
     <t xml:space="preserve">  `is_active` boolean,</t>
   </si>
   <si>
-    <t xml:space="preserve">  `sex` char(1),</t>
-  </si>
-  <si>
     <t xml:space="preserve">  `study_at` varchar(128),</t>
   </si>
   <si>
@@ -643,9 +622,6 @@
     <t>CREATE TABLE `user_roles` (</t>
   </si>
   <si>
-    <t xml:space="preserve">  `role_id` varchar(36)</t>
-  </si>
-  <si>
     <t>CREATE TABLE `roles` (</t>
   </si>
   <si>
@@ -721,9 +697,6 @@
     <t>"Registration successful"</t>
   </si>
   <si>
-    <t xml:space="preserve">  email varchar(100)</t>
-  </si>
-  <si>
     <t>0: nữ, 1: nam</t>
   </si>
   <si>
@@ -763,9 +736,6 @@
     <t>Ref: users.id &lt; comment.user_id</t>
   </si>
   <si>
-    <t xml:space="preserve">  `email` varchar(100),</t>
-  </si>
-  <si>
     <t>ALTER TABLE `comment` ADD FOREIGN KEY (`user_id`) REFERENCES `users` (`id`);</t>
   </si>
   <si>
@@ -1013,6 +983,27 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sex int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id varchar(36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  role_id varchar(36) [primary key]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id varchar(36)  [primary key]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sex` int,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `role_id` varchar(36),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`user_id`, `role_id`)</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1134,9 +1125,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1149,17 +1146,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,9 +1161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1181,20 +1172,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,17 +1223,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>494064</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>474785</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0A4607-328A-4D04-4A94-1D67F6F83589}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360252B4-31A8-7A56-9F31-764E204006DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8399814" cy="4615962"/>
+          <a:ext cx="7772400" cy="5019436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
-  <dimension ref="A2:V201"/>
+  <dimension ref="A2:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -1590,87 +1577,87 @@
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="12" t="s">
+      <c r="O3" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="14"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="15:22">
-      <c r="O4" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="12" t="s">
+      <c r="O4" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" spans="15:22">
-      <c r="O5" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="12" t="s">
+      <c r="O5" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
     </row>
     <row r="6" spans="15:22">
-      <c r="O6" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="12" t="s">
+      <c r="O6" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
     </row>
     <row r="7" spans="15:22">
-      <c r="O7" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="12" t="s">
+      <c r="O7" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="15:22">
       <c r="O8" s="15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1683,95 +1670,85 @@
       <c r="V8" s="17"/>
     </row>
     <row r="9" spans="15:22">
-      <c r="O9" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="12" t="s">
+      <c r="O9" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
     </row>
     <row r="10" spans="15:22">
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+    </row>
+    <row r="11" spans="15:22">
+      <c r="O11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-    </row>
-    <row r="11" spans="15:22">
-      <c r="O11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -1806,7 +1783,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -1826,7 +1803,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -1856,12 +1833,12 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -1916,12 +1893,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -1936,12 +1913,12 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -1956,7 +1933,7 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -1991,17 +1968,17 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -2016,12 +1993,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -2031,302 +2008,302 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -2336,126 +2313,127 @@
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="R9:V9"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O2:Q2"/>
@@ -2470,12 +2448,6 @@
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="R2:V2"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="R9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -2500,48 +2472,48 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2552,239 +2524,239 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="H5" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>55</v>
+        <v>283</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="36">
+        <v>116</v>
+      </c>
+      <c r="F8" s="13">
         <v>128</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+        <v>116</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="36">
+        <v>116</v>
+      </c>
+      <c r="F10" s="13">
         <v>128</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="36">
+        <v>116</v>
+      </c>
+      <c r="F11" s="13">
         <v>128</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="36">
+        <v>116</v>
+      </c>
+      <c r="F12" s="13">
         <v>1024</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="36">
+        <v>116</v>
+      </c>
+      <c r="F13" s="13">
         <v>1024</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="F14" s="13">
         <v>10</v>
       </c>
-      <c r="G14" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="G14" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12">
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -2796,33 +2768,33 @@
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -2834,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2846,71 +2818,71 @@
     </row>
     <row r="24" spans="1:12">
       <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="25"/>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="22"/>
+      <c r="C25" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="25"/>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="22"/>
+      <c r="C26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="C27" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2918,46 +2890,46 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="22"/>
+      <c r="C32" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="25"/>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="22"/>
+      <c r="C33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="22"/>
+      <c r="C34" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2965,10 +2937,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2976,22 +2948,22 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="22"/>
+      <c r="C37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2999,34 +2971,33 @@
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:L17"/>
@@ -3036,19 +3007,20 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:L14"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3069,45 +3041,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3119,120 +3091,120 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -3244,33 +3216,33 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -3282,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3294,26 +3266,26 @@
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="22"/>
+      <c r="C19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3321,34 +3293,34 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="22"/>
+      <c r="C21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="25"/>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="22"/>
+      <c r="C22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="25"/>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3356,10 +3328,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3367,15 +3339,15 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
@@ -3384,38 +3356,38 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="22"/>
+      <c r="C28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="22"/>
+      <c r="C29" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3423,10 +3395,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3434,26 +3406,25 @@
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -3467,11 +3438,12 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3493,45 +3465,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3544,40 +3516,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3590,18 +3562,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3614,15 +3586,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
@@ -3636,33 +3608,33 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -3674,73 +3646,73 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
@@ -3755,12 +3727,12 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3775,12 +3747,12 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -3795,12 +3767,12 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
@@ -3815,12 +3787,12 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -3835,12 +3807,12 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
@@ -3855,12 +3827,12 @@
         <v>10</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
@@ -3875,12 +3847,12 @@
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
@@ -3895,12 +3867,12 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
@@ -3915,12 +3887,12 @@
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
@@ -3935,7 +3907,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="9"/>
     </row>
@@ -3947,22 +3919,17 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:L14"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -3971,6 +3938,11 @@
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3992,45 +3964,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4043,15 +4015,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
@@ -4065,33 +4037,33 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4103,73 +4075,73 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
@@ -4184,12 +4156,12 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
@@ -4204,12 +4176,12 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
@@ -4224,12 +4196,12 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
@@ -4244,12 +4216,12 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -4264,12 +4236,12 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -4284,12 +4256,12 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
@@ -4304,12 +4276,12 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -4324,12 +4296,12 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
@@ -4344,12 +4316,12 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
@@ -4364,7 +4336,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="9"/>
     </row>
@@ -4376,22 +4348,27 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
@@ -4399,11 +4376,6 @@
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4424,45 +4396,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4474,94 +4446,94 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -4573,33 +4545,33 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -4611,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4623,14 +4595,14 @@
     </row>
     <row r="17" spans="1:17">
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="25"/>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4638,10 +4610,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4649,10 +4621,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4660,15 +4632,15 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="B21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4676,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4686,41 +4658,41 @@
     </row>
     <row r="24" spans="1:17">
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="25"/>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="D25" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="25"/>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="D26" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="25"/>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q26" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4728,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4739,19 +4711,26 @@
         <v>1</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B4:D4"/>
@@ -4763,13 +4742,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G9:L9"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4790,45 +4762,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4840,78 +4812,78 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -4923,33 +4895,33 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -4961,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4973,14 +4945,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4988,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4999,10 +4971,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5010,15 +4982,15 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5026,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5036,38 +5008,38 @@
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="25"/>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="D24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="25"/>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="D25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="25"/>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5075,10 +5047,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5086,25 +5058,19 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
@@ -5115,6 +5081,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5132,45 +5104,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5182,100 +5154,100 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -5287,33 +5259,33 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -5325,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -5337,26 +5309,26 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="25"/>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="22"/>
+      <c r="C18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5364,22 +5336,22 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="22"/>
+      <c r="C20" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5387,10 +5359,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5398,10 +5370,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5409,42 +5381,34 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="G9:L9"/>
@@ -5455,6 +5419,14 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5472,45 +5444,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5522,56 +5494,56 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5583,33 +5555,33 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -5621,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -5633,26 +5605,26 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="22"/>
+      <c r="C16" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5660,34 +5632,40 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
@@ -5695,12 +5673,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5721,45 +5693,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5771,56 +5743,56 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5832,33 +5804,33 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -5870,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -5880,15 +5852,15 @@
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5923,45 +5895,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5973,78 +5945,78 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -6056,33 +6028,33 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -6094,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6104,20 +6076,20 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="C17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -6125,61 +6097,66 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="C23" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="C24" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="C27" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
@@ -6187,11 +6164,6 @@
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6214,45 +6186,45 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -6264,136 +6236,136 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+        <v>205</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+        <v>207</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -6405,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6416,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6427,36 +6399,36 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:7">
       <c r="D18" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:7">
       <c r="D19" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="D20" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -6464,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6474,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -6484,29 +6456,29 @@
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:7">
       <c r="D24" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="D25" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -6514,7 +6486,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -6525,29 +6497,29 @@
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:7">
       <c r="D28" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="D29" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -6642,6 +6614,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="F9:M9"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -6649,13 +6628,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6676,45 +6648,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -6726,78 +6698,78 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -6809,33 +6781,33 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -6847,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6857,20 +6829,20 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="C17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -6878,46 +6850,46 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="C23" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="C25" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6994,48 +6966,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -7047,101 +7019,101 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13">
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
@@ -7153,14 +7125,14 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -7172,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7183,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7194,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -7204,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -7214,19 +7186,19 @@
         <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:7">
       <c r="D19" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -7234,7 +7206,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7245,19 +7217,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:7">
       <c r="D22" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7295,48 +7267,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -7348,24 +7320,24 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
+      <c r="H5" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
@@ -7384,24 +7356,24 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -7413,190 +7385,178 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1">
         <v>128</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="1">
         <v>20</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -7608,14 +7568,14 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -7627,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7639,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -7648,10 +7608,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -7662,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7672,137 +7632,137 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="C27" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="22"/>
+      <c r="C28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="22"/>
+      <c r="C29" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="22"/>
+      <c r="C30" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="22"/>
+      <c r="C31" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="25"/>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="22"/>
+      <c r="C32" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="25"/>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="22"/>
+      <c r="C33" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="22"/>
+      <c r="C37" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="22"/>
+      <c r="C38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="G38">
         <v>1</v>
       </c>
@@ -7811,24 +7771,24 @@
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="22"/>
+      <c r="C39" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="22"/>
+      <c r="C40" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="25"/>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -7836,10 +7796,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -7847,96 +7807,72 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="22"/>
+      <c r="C43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="22"/>
+      <c r="C44" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45">
         <v>9</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="22"/>
+      <c r="C45" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="9"/>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:M10"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -7951,6 +7887,30 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7972,48 +7932,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -8025,76 +7985,76 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
@@ -8106,14 +8066,14 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -8125,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -8137,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -8149,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -8158,10 +8118,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
@@ -8174,7 +8134,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -8182,73 +8142,72 @@
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F19" s="9"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="C23:D23"/>
@@ -8261,11 +8220,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8286,48 +8246,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -8339,95 +8299,95 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -8439,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -8451,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -8462,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -8476,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -8487,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -8527,45 +8487,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -8577,68 +8537,68 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
@@ -8652,13 +8612,13 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
@@ -8672,13 +8632,13 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
@@ -8689,14 +8649,14 @@
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -8708,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -8720,19 +8680,19 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -8740,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8748,36 +8708,36 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8795,48 +8755,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -8848,76 +8808,76 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="30"/>
@@ -8932,13 +8892,13 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="30"/>
@@ -8953,13 +8913,13 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="30"/>
@@ -8971,23 +8931,17 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -8999,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -9012,19 +8966,19 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -9032,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -9040,19 +8994,26 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B5:D5"/>
@@ -9062,13 +9023,6 @@
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G10:M10"/>
     <mergeCell ref="G11:M11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9090,48 +9044,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -9143,76 +9097,76 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
@@ -9227,13 +9181,13 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
@@ -9248,158 +9202,158 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
+        <v>205</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -9411,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -9419,24 +9373,24 @@
     </row>
     <row r="22" spans="1:13">
       <c r="B22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:13">
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -9444,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -9452,7 +9406,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -9460,7 +9414,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -9468,7 +9422,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -9476,7 +9430,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -9484,7 +9438,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -9492,7 +9446,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -9500,37 +9454,19 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
@@ -9542,6 +9478,24 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RunTestJunit\TrainingWebApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35494B2-FB4A-4455-89CB-16A21E252475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1BFEF2-3A7D-403F-B5A4-AB8B9F31250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="324">
   <si>
     <t>Users</t>
   </si>
@@ -63,9 +63,6 @@
     <t>}</t>
   </si>
   <si>
-    <t xml:space="preserve">  is_active boolean</t>
-  </si>
-  <si>
     <t xml:space="preserve">  date_of_birth date</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
     <t>Length</t>
   </si>
   <si>
-    <t>100000~999999</t>
-  </si>
-  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -693,9 +687,6 @@
     <t>Token is created!</t>
   </si>
   <si>
-    <t>Otp or email is valid!</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -972,9 +963,6 @@
     <t xml:space="preserve">  status varchar(1) </t>
   </si>
   <si>
-    <t xml:space="preserve">  delFlg boolean</t>
-  </si>
-  <si>
     <t>Table post_likes {</t>
   </si>
   <si>
@@ -1021,6 +1009,18 @@
   </si>
   <si>
     <t>/v1/export-report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  delFlg boolean [default: false]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_active boolean [default: true]</t>
+  </si>
+  <si>
+    <t>Username or otp is valid!</t>
+  </si>
+  <si>
+    <t>Token forgot password had created!</t>
   </si>
 </sst>
 </file>
@@ -1243,16 +1243,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52172</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B61C8B-188F-988F-04B5-90379628A9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CFDCFD-12F0-8BAE-3029-8F68AF7E9AC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7772400" cy="5957672"/>
+          <a:ext cx="7772400" cy="5541029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,9 +1584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
-  <dimension ref="A2:V134"/>
+  <dimension ref="A2:V131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1606,12 +1608,12 @@
     </row>
     <row r="3" spans="15:22">
       <c r="O3" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
@@ -1620,12 +1622,12 @@
     </row>
     <row r="4" spans="15:22">
       <c r="O4" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -1634,12 +1636,12 @@
     </row>
     <row r="5" spans="15:22">
       <c r="O5" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -1648,12 +1650,12 @@
     </row>
     <row r="6" spans="15:22">
       <c r="O6" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -1662,12 +1664,12 @@
     </row>
     <row r="7" spans="15:22">
       <c r="O7" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -1676,12 +1678,12 @@
     </row>
     <row r="8" spans="15:22">
       <c r="O8" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -1690,12 +1692,12 @@
     </row>
     <row r="9" spans="15:22">
       <c r="O9" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -1704,12 +1706,12 @@
     </row>
     <row r="10" spans="15:22">
       <c r="O10" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -1718,12 +1720,12 @@
     </row>
     <row r="11" spans="15:22">
       <c r="O11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -1732,12 +1734,12 @@
     </row>
     <row r="12" spans="15:22">
       <c r="O12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -1746,101 +1748,116 @@
     </row>
     <row r="13" spans="15:22">
       <c r="O13" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="18"/>
     </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -1850,17 +1867,12 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -1870,257 +1882,257 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>310</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>312</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>201</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -2130,77 +2142,67 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>319</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>320</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2250,45 +2252,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -2301,15 +2303,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
@@ -2323,15 +2325,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
@@ -2345,12 +2347,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="16"/>
@@ -2365,7 +2367,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22"/>
@@ -2377,21 +2379,21 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -2404,15 +2406,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -2429,7 +2431,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -2441,26 +2443,26 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="22"/>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2468,11 +2470,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="22"/>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2480,10 +2482,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
         <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2491,11 +2493,11 @@
         <v>3</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="22"/>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2503,11 +2505,11 @@
         <v>4</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="22"/>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2515,10 +2517,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2526,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2538,19 +2540,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D26" s="22"/>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2558,11 +2560,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2570,11 +2572,11 @@
         <v>2</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="22"/>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2582,10 +2584,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2593,16 +2595,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2648,48 +2650,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2702,21 +2704,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2729,7 +2731,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="22"/>
@@ -2741,18 +2743,18 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -2767,12 +2769,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
@@ -2788,12 +2790,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
@@ -2812,7 +2814,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -2824,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2836,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2845,7 +2847,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2854,18 +2856,18 @@
     </row>
     <row r="17" spans="2:5">
       <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>243</v>
-      </c>
-      <c r="E17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2873,23 +2875,23 @@
         <v>2</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:5">
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5">
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2983,45 +2985,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -3034,15 +3036,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
@@ -3056,15 +3058,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -3078,15 +3080,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
@@ -3100,15 +3102,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
@@ -3122,7 +3124,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="22"/>
@@ -3134,21 +3136,21 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -3161,12 +3163,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="23"/>
@@ -3181,12 +3183,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="23"/>
@@ -3201,12 +3203,12 @@
         <v>3</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="23"/>
@@ -3221,12 +3223,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
@@ -3241,12 +3243,12 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3261,12 +3263,12 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -3281,12 +3283,12 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
@@ -3301,12 +3303,12 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -3321,12 +3323,12 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
@@ -3341,12 +3343,12 @@
         <v>10</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
@@ -3361,12 +3363,12 @@
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
@@ -3381,12 +3383,12 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
@@ -3401,12 +3403,12 @@
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
@@ -3421,7 +3423,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="9"/>
     </row>
@@ -3433,14 +3435,14 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3481,45 +3483,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -3532,15 +3534,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -3554,18 +3556,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3578,18 +3580,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3602,15 +3604,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
@@ -3624,15 +3626,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
@@ -3646,15 +3648,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
@@ -3668,15 +3670,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
@@ -3690,7 +3692,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="22"/>
@@ -3702,21 +3704,21 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3729,12 +3731,12 @@
         <v>1</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="23"/>
@@ -3749,12 +3751,12 @@
         <v>2</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="23"/>
@@ -3769,12 +3771,12 @@
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="23"/>
@@ -3789,12 +3791,12 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
@@ -3809,12 +3811,12 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -3829,12 +3831,12 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
@@ -3849,12 +3851,12 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
@@ -3869,12 +3871,12 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
@@ -3889,12 +3891,12 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
@@ -3909,12 +3911,12 @@
         <v>10</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
@@ -3929,12 +3931,12 @@
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
@@ -3949,12 +3951,12 @@
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
@@ -3969,12 +3971,12 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
@@ -3989,7 +3991,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="9"/>
     </row>
@@ -4001,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4044,45 +4046,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -4095,12 +4097,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="16"/>
@@ -4115,12 +4117,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
@@ -4135,12 +4137,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="16"/>
@@ -4155,7 +4157,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22"/>
@@ -4167,21 +4169,21 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -4194,15 +4196,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -4216,15 +4218,15 @@
         <v>2</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -4241,7 +4243,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -4250,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -4259,16 +4261,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:17">
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -4277,7 +4279,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="B19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -4286,26 +4288,26 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:17">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D22" s="22"/>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4313,10 +4315,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4324,10 +4326,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4335,15 +4337,15 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4351,24 +4353,24 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4376,11 +4378,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="22"/>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4388,14 +4390,14 @@
         <v>2</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="22"/>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4403,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
         <v>118</v>
-      </c>
-      <c r="G32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4414,23 +4416,23 @@
         <v>3</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4474,45 +4476,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -4525,15 +4527,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -4547,15 +4549,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -4569,7 +4571,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22"/>
@@ -4581,21 +4583,21 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -4608,15 +4610,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -4633,7 +4635,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -4642,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -4651,16 +4653,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -4669,7 +4671,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -4678,26 +4680,26 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="22"/>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4705,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -4716,10 +4718,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4727,15 +4729,15 @@
         <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4771,45 +4773,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -4822,15 +4824,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -4844,15 +4846,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -4866,15 +4868,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
@@ -4888,7 +4890,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22"/>
@@ -4900,21 +4902,21 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -4927,15 +4929,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -4952,7 +4954,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -4964,26 +4966,26 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="22"/>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4991,11 +4993,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="22"/>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5003,10 +5005,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5014,11 +5016,11 @@
         <v>3</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="22"/>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5026,10 +5028,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
         <v>120</v>
-      </c>
-      <c r="F21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5037,10 +5039,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5048,10 +5050,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5063,15 +5065,15 @@
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5109,45 +5111,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -5160,15 +5162,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
@@ -5182,7 +5184,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
@@ -5194,21 +5196,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -5221,15 +5223,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -5246,7 +5248,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -5255,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -5264,16 +5266,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -5285,26 +5287,26 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="22"/>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5312,11 +5314,11 @@
         <v>1</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="22"/>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5324,10 +5326,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5339,15 +5341,15 @@
         <v>2</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5383,45 +5385,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -5434,15 +5436,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -5456,7 +5458,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
@@ -5468,21 +5470,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -5495,15 +5497,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -5520,7 +5522,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -5529,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -5538,16 +5540,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -5559,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -5569,20 +5571,20 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5615,45 +5617,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -5666,15 +5668,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -5688,7 +5690,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
@@ -5700,21 +5702,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -5727,15 +5729,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -5752,7 +5754,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -5761,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -5770,16 +5772,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -5791,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -5800,16 +5802,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -5821,7 +5823,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -5830,16 +5832,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F22" s="9"/>
     </row>
@@ -5851,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -5861,20 +5863,20 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5882,65 +5884,65 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
         <v>180</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5964,7 +5966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D718E28-DA37-4336-A7BD-AB0FD12F5EFB}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5975,45 +5979,45 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -6026,18 +6030,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -6051,18 +6055,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -6073,7 +6077,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -6084,18 +6088,18 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -6110,12 +6114,12 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -6131,12 +6135,12 @@
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -6154,7 +6158,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -6166,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6177,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6188,26 +6192,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:7">
       <c r="D18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:7">
       <c r="D19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -6215,7 +6219,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -6225,7 +6229,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6235,29 +6239,29 @@
         <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:7">
       <c r="D23" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="D24" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -6265,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -6276,19 +6280,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:7">
       <c r="D27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -6415,45 +6419,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -6466,15 +6470,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
@@ -6500,21 +6504,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -6527,15 +6531,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -6552,7 +6556,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -6561,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -6570,16 +6574,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -6591,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -6600,16 +6604,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -6621,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -6631,20 +6635,20 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6652,15 +6656,15 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6668,20 +6672,20 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6714,45 +6718,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -6765,15 +6769,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -6787,7 +6791,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
@@ -6799,21 +6803,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -6826,15 +6830,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -6851,7 +6855,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -6863,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -6872,16 +6876,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -6893,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -6902,16 +6906,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -6923,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -6933,20 +6937,20 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6954,15 +6958,15 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6970,36 +6974,36 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7032,45 +7036,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -7083,15 +7087,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -7105,7 +7109,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
@@ -7117,21 +7121,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -7144,15 +7148,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -7169,7 +7173,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -7178,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -7187,16 +7191,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -7208,7 +7212,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -7217,16 +7221,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -7238,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7248,20 +7252,20 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7269,25 +7273,25 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7320,45 +7324,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -7371,15 +7375,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -7407,7 +7411,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22"/>
@@ -7419,21 +7423,21 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -7446,15 +7450,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -7471,7 +7475,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -7480,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -7489,16 +7493,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -7507,7 +7511,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7517,15 +7521,15 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7533,7 +7537,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -7542,15 +7546,15 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7589,45 +7593,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -7640,15 +7644,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -7676,7 +7680,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22"/>
@@ -7688,21 +7692,21 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -7715,15 +7719,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -7740,7 +7744,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -7749,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -7758,16 +7762,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -7776,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7786,15 +7790,15 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7802,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -7811,15 +7815,15 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7858,45 +7862,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -7909,18 +7913,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7933,18 +7937,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -7971,7 +7975,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="22"/>
@@ -7983,21 +7987,21 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -8010,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -8031,7 +8035,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -8040,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -8069,7 +8073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0DE42E-98BF-453D-9140-687A190F6884}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8080,48 +8086,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -8134,18 +8140,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -8159,18 +8165,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -8184,7 +8188,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="22"/>
@@ -8196,18 +8200,18 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -8222,12 +8226,12 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
@@ -8243,12 +8247,12 @@
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
@@ -8264,12 +8268,12 @@
         <v>3</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
@@ -8288,7 +8292,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -8300,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -8311,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -8322,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -8332,7 +8336,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -8342,39 +8346,39 @@
         <v>3</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:7">
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="D23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -8382,7 +8386,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -8393,19 +8397,19 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:7">
       <c r="D26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8435,7 +8439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB115A13-9B20-4323-A93A-95D2E5F91F9A}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8445,48 +8451,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -8499,18 +8505,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
@@ -8524,18 +8530,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
@@ -8549,18 +8555,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1">
         <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -8574,7 +8580,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="22"/>
@@ -8586,18 +8592,18 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -8612,12 +8618,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
@@ -8636,7 +8642,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -8648,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -8660,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -8669,10 +8675,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -8683,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8693,14 +8699,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="22"/>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8708,11 +8714,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="22"/>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8720,11 +8726,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="22"/>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -8732,11 +8738,11 @@
         <v>3</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="22"/>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8744,10 +8750,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
         <v>215</v>
-      </c>
-      <c r="G25" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -8755,11 +8761,11 @@
         <v>5</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="22"/>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8767,28 +8773,28 @@
         <v>6</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="22"/>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D30" s="22"/>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8796,11 +8802,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="22"/>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -8808,10 +8814,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -8819,10 +8825,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -8830,7 +8836,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="22"/>
       <c r="G34">
@@ -8842,10 +8848,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -8853,11 +8859,11 @@
         <v>5</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="22"/>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -8865,11 +8871,11 @@
         <v>6</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="22"/>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -8877,14 +8883,14 @@
         <v>7</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="22"/>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -8892,10 +8898,10 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -8903,10 +8909,10 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -8914,11 +8920,11 @@
         <v>10</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="22"/>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -8926,30 +8932,30 @@
         <v>11</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="22"/>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8989,9 +8995,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AD5680-2F92-4977-A942-7FD8E32F6A16}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9002,48 +9010,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -9056,18 +9064,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -9081,7 +9089,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="22"/>
@@ -9093,18 +9101,18 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -9119,12 +9127,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
@@ -9136,38 +9144,47 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -9175,79 +9192,95 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>222</v>
-      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="D19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
     </row>
-    <row r="30" spans="2:6">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="2:6">
+    <row r="28" spans="2:7">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
     </row>
@@ -9259,43 +9292,53 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+    <row r="35" spans="3:4">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
     </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C38:D38"/>
+  <mergeCells count="25">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9305,7 +9348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F224A5-944A-4034-9DE5-EC9D9DF50DFD}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9316,48 +9361,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -9370,18 +9415,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
@@ -9395,18 +9440,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
@@ -9420,18 +9465,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
@@ -9445,7 +9490,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="22"/>
@@ -9457,18 +9502,18 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -9483,12 +9528,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -9507,7 +9552,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -9516,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -9525,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -9534,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -9549,7 +9594,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -9562,7 +9607,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -9571,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -9583,7 +9628,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -9592,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -9601,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -9609,16 +9654,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:7">
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -9650,7 +9695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F22665-80BE-4C66-A9B9-B038FD257DE6}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9660,48 +9705,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -9714,18 +9759,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -9739,7 +9784,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="22"/>
@@ -9751,18 +9796,18 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -9777,12 +9822,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
@@ -9798,12 +9843,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
@@ -9819,12 +9864,12 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -9840,12 +9885,12 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -9861,12 +9906,12 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -9882,12 +9927,12 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -9903,12 +9948,12 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -9924,12 +9969,12 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
@@ -9948,7 +9993,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -9960,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -9969,16 +10014,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -9990,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -9998,10 +10043,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D25" s="22"/>
     </row>
@@ -10010,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10018,7 +10063,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10026,7 +10071,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10034,7 +10079,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10042,7 +10087,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10050,7 +10095,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10058,7 +10103,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -10066,7 +10111,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -10125,48 +10170,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -10179,18 +10224,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>36</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -10204,7 +10249,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="22"/>
@@ -10216,18 +10261,18 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -10242,12 +10287,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
@@ -10263,12 +10308,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
@@ -10284,12 +10329,12 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -10305,12 +10350,12 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -10326,12 +10371,12 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -10347,12 +10392,12 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -10368,12 +10413,12 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -10389,12 +10434,12 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
@@ -10413,7 +10458,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -10422,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -10430,10 +10475,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="22"/>
     </row>
@@ -10442,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10450,7 +10495,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10458,7 +10503,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10466,7 +10511,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10474,7 +10519,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10482,7 +10527,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10490,7 +10535,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10498,7 +10543,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10558,45 +10603,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -10609,12 +10654,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="41">
         <v>128</v>
@@ -10631,15 +10676,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -10653,12 +10698,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="41">
         <v>128</v>
@@ -10675,12 +10720,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="41">
         <v>128</v>
@@ -10697,12 +10742,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="41">
         <v>1024</v>
@@ -10719,12 +10764,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="41">
         <v>1024</v>
@@ -10741,18 +10786,18 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="41">
         <v>10</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -10765,12 +10810,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="36"/>
@@ -10785,7 +10830,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="22"/>
@@ -10797,21 +10842,21 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -10824,15 +10869,15 @@
         <v>1</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -10846,15 +10891,15 @@
         <v>2</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -10871,7 +10916,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -10883,26 +10928,26 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D23" s="22"/>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -10910,10 +10955,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -10921,11 +10966,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="22"/>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10933,11 +10978,11 @@
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="22"/>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -10945,11 +10990,11 @@
         <v>4</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -10957,10 +11002,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -10968,10 +11013,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
         <v>91</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -10979,11 +11024,11 @@
         <v>7</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="22"/>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -10991,11 +11036,11 @@
         <v>8</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="22"/>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -11003,24 +11048,24 @@
         <v>2</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrainingWebApi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RunTestJunit\TrainingWebApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958DC75-1A97-4E24-94E9-623B899DDBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9013D-FFCD-430A-BDD5-4468BFD2E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" firstSheet="21" activeTab="21" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="24" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="API unfirend" sheetId="23" r:id="rId22"/>
     <sheet name="API reactionPost" sheetId="20" r:id="rId23"/>
     <sheet name="API reactionComment" sheetId="38" r:id="rId24"/>
-    <sheet name="API exportReport" sheetId="19" r:id="rId25"/>
+    <sheet name="API downloadReport" sheetId="19" r:id="rId25"/>
     <sheet name="API uploadFile" sheetId="32" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="344">
   <si>
     <t>Users</t>
   </si>
@@ -877,9 +877,6 @@
     <t>File đã export</t>
   </si>
   <si>
-    <t>Xuất ra file excel những thông tin dưới: số bài đã viết tuần qua, số bạn bè mới, số like và số comment mới (của user)</t>
-  </si>
-  <si>
     <t>post_likes</t>
   </si>
   <si>
@@ -964,9 +961,6 @@
     <t>Ref: comments.id &lt; comment_likes.comment_id</t>
   </si>
   <si>
-    <t>/v1/export-report</t>
-  </si>
-  <si>
     <t xml:space="preserve">  delFlg boolean [default: false]</t>
   </si>
   <si>
@@ -1076,6 +1070,18 @@
   </si>
   <si>
     <t>Accept request error!</t>
+  </si>
+  <si>
+    <t>Trường hợp khác trả về Reaction error!</t>
+  </si>
+  <si>
+    <t>/v1/download-report</t>
+  </si>
+  <si>
+    <t>Xuất ra file excel những thông tin dưới: số bài đã viết, số bạn bè mới, số like và số comment mới (của user)</t>
+  </si>
+  <si>
+    <t>Theo thời gian đưa vào</t>
   </si>
 </sst>
 </file>
@@ -1206,6 +1212,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1218,9 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1253,6 +1259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1260,12 +1272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,18 +1645,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7150A116-D06B-4A83-98C1-0E1745B6D791}">
   <dimension ref="A2:V131"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="15:22">
-      <c r="O2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1660,158 +1666,158 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" spans="15:22">
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="19" t="s">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="21"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="5" spans="15:22">
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="19" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
     </row>
     <row r="6" spans="15:22">
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
     </row>
     <row r="7" spans="15:22">
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="15:22">
+      <c r="O8" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="20"/>
+    </row>
+    <row r="9" spans="15:22">
+      <c r="O9" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="15:22">
+      <c r="O10" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="19" t="s">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="15:22">
+      <c r="O11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="15:22">
+      <c r="O12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="15:22">
+      <c r="O13" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="15:22">
-      <c r="O8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="15:22">
-      <c r="O9" s="19" t="s">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="15:22">
-      <c r="O10" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="21"/>
-    </row>
-    <row r="11" spans="15:22">
-      <c r="O11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="15:22">
-      <c r="O12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="21"/>
-    </row>
-    <row r="13" spans="15:22">
-      <c r="O13" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="21"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
@@ -1835,12 +1841,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1880,7 +1886,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -1945,7 +1951,7 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -1985,12 +1991,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2010,7 +2016,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -2035,7 +2041,7 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -2045,7 +2051,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -2060,7 +2066,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -2070,12 +2076,12 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -2085,7 +2091,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -2095,7 +2101,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -2105,7 +2111,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -2130,7 +2136,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -2210,37 +2216,37 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -2255,21 +2261,11 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="R10:V10"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O2:Q2"/>
@@ -2284,6 +2280,16 @@
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="R2:V2"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="R10:V10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -2314,7 +2320,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2337,32 +2343,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2372,34 +2378,34 @@
       <c r="F5" s="12">
         <v>20</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -2420,25 +2426,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -2482,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2492,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2500,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2516,7 +2522,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2524,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -2540,23 +2546,23 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2607,25 +2613,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2642,54 +2648,54 @@
       <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
@@ -2710,25 +2716,25 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -2869,7 +2875,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2926,11 +2932,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
@@ -2947,6 +2948,11 @@
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2997,25 +3003,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3030,52 +3036,52 @@
         <v>92</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
@@ -3096,32 +3102,32 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3283,7 +3289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="C28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3346,7 +3352,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3354,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3362,20 +3368,11 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B4:D4"/>
@@ -3387,6 +3384,15 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3437,25 +3443,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3520,25 +3526,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -3615,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -3677,6 +3683,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="B9:D9"/>
@@ -3684,12 +3696,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3741,25 +3747,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3916,25 +3922,25 @@
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -4193,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -4265,25 +4271,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4348,25 +4354,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -4412,11 +4418,11 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -4656,11 +4662,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
@@ -4668,6 +4669,11 @@
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4717,25 +4723,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4774,12 +4780,12 @@
       <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -4800,25 +4806,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -4856,7 +4862,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -4977,6 +4983,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="G8:L8"/>
@@ -4987,12 +4999,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5039,25 +5045,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5074,12 +5080,12 @@
       <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
@@ -5100,25 +5106,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5156,7 +5162,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -5257,17 +5263,11 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
@@ -5275,6 +5275,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5324,25 +5330,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5385,25 +5391,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5561,25 +5567,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5622,25 +5628,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5860,16 +5866,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5915,11 +5921,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -5929,14 +5935,14 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -6003,11 +6009,11 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
@@ -6034,14 +6040,14 @@
       <c r="E10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
@@ -6055,14 +6061,14 @@
       <c r="E11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="25"/>
@@ -6300,6 +6306,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="H8:M8"/>
@@ -6307,13 +6320,6 @@
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="F9:M9"/>
     <mergeCell ref="H5:M5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6363,25 +6369,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6424,25 +6430,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -6549,7 +6555,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -6571,7 +6577,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6584,7 +6590,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6648,25 +6654,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6709,25 +6715,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -6915,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -6928,7 +6934,7 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6955,7 +6961,7 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6990,25 +6996,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7051,25 +7057,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -7241,9 +7247,14 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C8145F-D1C5-42C9-A100-D5B6C67D6EEE}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7278,25 +7289,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7342,25 +7353,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -7472,6 +7483,14 @@
       </c>
       <c r="D21" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7499,9 +7518,14 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC306D-1CBE-46C3-B4A9-9DC4D56B14A9}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7536,25 +7560,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7600,25 +7624,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -7730,6 +7754,14 @@
       </c>
       <c r="D21" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7757,9 +7789,14 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A366CC-89AC-4D29-BA50-FFB24D19FA87}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7771,7 +7808,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7794,25 +7831,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7884,25 +7921,25 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -7939,9 +7976,14 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="9"/>
@@ -7968,7 +8010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC5AAB2-C8DA-4438-BA37-2B6DDD37E50E}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8004,11 +8048,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -8018,24 +8062,24 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
@@ -8045,14 +8089,14 @@
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="G6" s="8"/>
@@ -8073,11 +8117,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -8270,6 +8314,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="B9:D9"/>
@@ -8283,16 +8337,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8344,11 +8388,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -8358,14 +8402,14 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -8434,11 +8478,11 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
@@ -8641,7 +8685,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8712,11 +8756,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -8726,24 +8770,24 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
@@ -8753,22 +8797,22 @@
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
@@ -8778,12 +8822,12 @@
       <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
@@ -8829,11 +8873,11 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
@@ -9195,16 +9239,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H7:M7"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
@@ -9217,12 +9257,16 @@
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9274,11 +9318,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -9288,14 +9332,14 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -9341,11 +9385,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -9364,11 +9408,11 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
@@ -9385,11 +9429,11 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
@@ -9474,7 +9518,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -9552,15 +9596,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B5:D5"/>
@@ -9577,6 +9612,15 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9605,7 +9649,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -9628,11 +9672,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -9642,24 +9686,24 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
@@ -9669,22 +9713,22 @@
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
@@ -9694,22 +9738,22 @@
       <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
         <v>92</v>
       </c>
@@ -9719,12 +9763,12 @@
       <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13">
       <c r="G8" s="8"/>
@@ -9745,11 +9789,11 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
@@ -9954,7 +9998,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -9977,11 +10021,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -9991,14 +10035,14 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -10044,11 +10088,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -10067,11 +10111,11 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
@@ -10088,11 +10132,11 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
@@ -10109,127 +10153,127 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="25"/>
@@ -10281,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -10299,7 +10343,7 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -10400,6 +10444,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C39:D39"/>
@@ -10410,23 +10471,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10477,11 +10521,11 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -10491,14 +10535,14 @@
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -10544,11 +10588,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -10567,11 +10611,11 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
@@ -10588,11 +10632,11 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
@@ -10609,127 +10653,127 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="25"/>
@@ -10837,6 +10881,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:M14"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="B15:D15"/>
@@ -10845,25 +10908,6 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10915,25 +10959,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -10950,166 +10994,166 @@
       <c r="F5" s="12">
         <v>128</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="12">
         <v>128</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="12">
         <v>128</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="12">
         <v>1024</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="12">
         <v>1024</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="12">
         <v>10</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12">
       <c r="F13" s="8"/>
@@ -11130,169 +11174,169 @@
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="1"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="1"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="1"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
@@ -11305,12 +11349,12 @@
       <c r="D24" s="26"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="25"/>
@@ -11362,7 +11406,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -11469,7 +11513,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="9"/>
     </row>
@@ -11478,7 +11522,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11494,36 +11538,11 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B16:D16"/>
@@ -11540,6 +11559,31 @@
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>

--- a/Design_WebApi.xlsx
+++ b/Design_WebApi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RunTestJunit\TrainingWebApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9013D-FFCD-430A-BDD5-4468BFD2E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88536A9-21EE-4A5C-8821-74064CA7F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="24" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="25" xr2:uid="{B4AAE70D-C38C-4155-BB24-E8C63987164A}"/>
   </bookViews>
   <sheets>
     <sheet name="TK DB" sheetId="2" r:id="rId1"/>
@@ -28,17 +28,17 @@
     <sheet name="API deletePost" sheetId="15" r:id="rId13"/>
     <sheet name="API getAllPost" sheetId="13" r:id="rId14"/>
     <sheet name="API getPost" sheetId="24" r:id="rId15"/>
-    <sheet name="API insertComment" sheetId="11" r:id="rId16"/>
-    <sheet name="API editComment" sheetId="17" r:id="rId17"/>
-    <sheet name="API deleteComment" sheetId="18" r:id="rId18"/>
-    <sheet name="API sendRequestFriend" sheetId="21" r:id="rId19"/>
-    <sheet name="API cancelRequestFriend" sheetId="35" r:id="rId20"/>
-    <sheet name="API acceptRequestFriend" sheetId="33" r:id="rId21"/>
-    <sheet name="API unfirend" sheetId="23" r:id="rId22"/>
-    <sheet name="API reactionPost" sheetId="20" r:id="rId23"/>
-    <sheet name="API reactionComment" sheetId="38" r:id="rId24"/>
-    <sheet name="API downloadReport" sheetId="19" r:id="rId25"/>
-    <sheet name="API uploadFile" sheetId="32" r:id="rId26"/>
+    <sheet name="API getComment" sheetId="40" r:id="rId16"/>
+    <sheet name="API insertComment" sheetId="11" r:id="rId17"/>
+    <sheet name="API editComment" sheetId="17" r:id="rId18"/>
+    <sheet name="API deleteComment" sheetId="18" r:id="rId19"/>
+    <sheet name="API sendRequestFriend" sheetId="21" r:id="rId20"/>
+    <sheet name="API cancelRequestFriend" sheetId="35" r:id="rId21"/>
+    <sheet name="API acceptRequestFriend" sheetId="33" r:id="rId22"/>
+    <sheet name="API unfirend" sheetId="23" r:id="rId23"/>
+    <sheet name="API reactionPost" sheetId="20" r:id="rId24"/>
+    <sheet name="API reactionComment" sheetId="38" r:id="rId25"/>
+    <sheet name="API downloadReport" sheetId="19" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="328">
   <si>
     <t>Users</t>
   </si>
@@ -424,21 +424,9 @@
     <t>updateTs</t>
   </si>
   <si>
-    <t xml:space="preserve">  content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  createTs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  updateTs</t>
-  </si>
-  <si>
     <t>List[String]</t>
   </si>
   <si>
-    <t>List[Object]</t>
-  </si>
-  <si>
     <t>postId</t>
   </si>
   <si>
@@ -499,9 +487,6 @@
     <t>capturesUrlList</t>
   </si>
   <si>
-    <t>commentList</t>
-  </si>
-  <si>
     <t>Delete post successfull!</t>
   </si>
   <si>
@@ -514,12 +499,6 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">  userId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  commentId</t>
-  </si>
-  <si>
     <t>commentId</t>
   </si>
   <si>
@@ -601,9 +580,6 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>Nếu thất bại trả về lỗi 500 kèm message "Registration error"</t>
   </si>
   <si>
@@ -730,30 +706,6 @@
     <t>/v1/userinfor/me</t>
   </si>
   <si>
-    <t>/v1/avatar-upload</t>
-  </si>
-  <si>
-    <t>multipart file (.jpg. Png)</t>
-  </si>
-  <si>
-    <t>urlAvatar</t>
-  </si>
-  <si>
-    <t>Thực hiện upload ảnh lên server</t>
-  </si>
-  <si>
-    <t>Nếu upload thành công</t>
-  </si>
-  <si>
-    <t>url của ảnh đã upload</t>
-  </si>
-  <si>
-    <t>upload avatar successful!</t>
-  </si>
-  <si>
-    <t>upload avatar fail!</t>
-  </si>
-  <si>
     <t>Update thông tin bài post của bản thân</t>
   </si>
   <si>
@@ -775,9 +727,6 @@
     <t>countLikes</t>
   </si>
   <si>
-    <t xml:space="preserve">  fullName</t>
-  </si>
-  <si>
     <t>Send request success!</t>
   </si>
   <si>
@@ -1082,6 +1031,9 @@
   </si>
   <si>
     <t>Theo thời gian đưa vào</t>
+  </si>
+  <si>
+    <t>Lấy thông tin comment của bài post</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1212,9 +1164,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1227,6 +1176,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1259,12 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1220,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,11 +1605,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="15:22">
-      <c r="O2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1666,158 +1619,158 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="15:22">
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="15:22">
+      <c r="O4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="15:22">
+      <c r="O5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row r="6" spans="15:22">
+      <c r="O6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" spans="15:22">
+      <c r="O7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+    </row>
+    <row r="8" spans="15:22">
+      <c r="O8" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" spans="15:22">
+      <c r="O9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+    </row>
+    <row r="10" spans="15:22">
+      <c r="O10" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+    </row>
+    <row r="11" spans="15:22">
+      <c r="O11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+    </row>
+    <row r="12" spans="15:22">
+      <c r="O12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" spans="15:22">
-      <c r="O4" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="15:22">
-      <c r="O5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="15:22">
-      <c r="O6" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="15:22">
-      <c r="O7" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="15:22">
-      <c r="O8" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
-    </row>
-    <row r="9" spans="15:22">
-      <c r="O9" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="15:22">
-      <c r="O10" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="15:22">
-      <c r="O11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="17"/>
-    </row>
-    <row r="12" spans="15:22">
-      <c r="O12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="17"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="15:22">
-      <c r="O13" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="17"/>
+      <c r="O13" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
@@ -1841,12 +1794,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1886,12 +1839,12 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -1911,7 +1864,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -1941,17 +1894,17 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -1991,12 +1944,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2016,17 +1969,17 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -2041,17 +1994,17 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -2066,7 +2019,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -2076,12 +2029,12 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -2091,7 +2044,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -2101,7 +2054,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -2111,12 +2064,12 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -2136,7 +2089,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -2161,12 +2114,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -2181,7 +2134,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -2216,42 +2169,42 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -2261,11 +2214,21 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="R10:V10"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O2:Q2"/>
@@ -2280,16 +2243,6 @@
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="R2:V2"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="R10:V10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -2320,7 +2273,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2329,7 +2282,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -2343,32 +2296,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2378,34 +2331,34 @@
       <c r="F5" s="12">
         <v>20</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -2426,25 +2379,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -2488,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2498,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2506,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2522,7 +2475,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2530,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -2546,23 +2499,23 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2590,7 +2543,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2613,25 +2566,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2648,54 +2601,54 @@
       <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
@@ -2716,25 +2669,25 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -2875,7 +2828,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2927,11 +2880,16 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B5:D5"/>
@@ -2948,11 +2906,6 @@
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2980,7 +2933,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -2989,7 +2942,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -3003,25 +2956,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3036,52 +2989,52 @@
         <v>92</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="8"/>
@@ -3102,32 +3055,32 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3183,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -3201,7 +3154,7 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -3210,7 +3163,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -3276,7 +3229,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3284,12 +3237,12 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="C28" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3325,10 +3278,10 @@
       </c>
       <c r="E31" s="25"/>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3352,7 +3305,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="9" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3360,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3368,11 +3321,20 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B4:D4"/>
@@ -3384,15 +3346,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3420,7 +3373,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3429,7 +3382,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -3443,25 +3396,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3490,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -3526,25 +3479,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -3585,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -3603,7 +3556,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -3612,7 +3565,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -3621,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -3648,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F21" s="14" t="b">
         <v>1</v>
@@ -3678,17 +3631,11 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="B9:D9"/>
@@ -3696,6 +3643,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3706,10 +3659,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3724,7 +3677,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -3747,25 +3700,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3783,7 +3736,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3807,7 +3760,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3820,12 +3773,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>40</v>
@@ -3842,12 +3795,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>40</v>
@@ -3864,12 +3817,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>40</v>
@@ -3886,12 +3839,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>40</v>
@@ -3922,32 +3875,32 @@
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -3992,7 +3945,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -4012,7 +3965,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
@@ -4027,12 +3980,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
@@ -4047,12 +4000,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -4063,156 +4016,36 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>9</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:L13"/>
@@ -4230,10 +4063,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4248,7 +4081,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -4271,37 +4104,37 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>40</v>
@@ -4318,12 +4151,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>40</v>
@@ -4354,32 +4187,32 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -4418,33 +4251,33 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
@@ -4459,12 +4292,12 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
@@ -4479,12 +4312,12 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
@@ -4495,16 +4328,330 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF1D8D-4AC2-498F-B241-DD03630681EA}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -4514,172 +4661,48 @@
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+    <row r="17" spans="1:6">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C28:D28"/>
+  <mergeCells count="8">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6D2DF-4943-4251-8C70-47D365726189}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4700,7 +4723,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -4723,32 +4746,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -4780,12 +4803,12 @@
       <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="8"/>
@@ -4806,25 +4829,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -4862,7 +4885,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -4871,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4913,7 +4936,7 @@
         <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4978,17 +5001,11 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="G8:L8"/>
@@ -4999,12 +5016,18 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC48B1F-FE60-4B6D-8C30-13F52369C9B6}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5022,7 +5045,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5031,7 +5054,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5045,25 +5068,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5080,12 +5103,12 @@
       <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="8"/>
@@ -5106,25 +5129,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5162,7 +5185,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -5171,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -5189,7 +5212,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -5201,7 +5224,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -5263,11 +5286,17 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
@@ -5275,18 +5304,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D520CD-7ED5-4B53-86FC-1CA6E4780865}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5307,7 +5330,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -5316,7 +5339,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5330,32 +5353,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -5391,25 +5414,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5450,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -5468,7 +5491,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -5480,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -5498,7 +5521,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5516,364 +5539,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DD60A9-8491-40AE-AB55-F36581F68447}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:L37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="C26" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="C27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:L9"/>
   </mergeCells>
@@ -5901,7 +5566,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5921,28 +5586,28 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -6009,11 +5674,11 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
@@ -6033,21 +5698,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
+        <v>132</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
@@ -6059,16 +5724,16 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+        <v>134</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="25"/>
@@ -6111,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -6125,12 +5790,12 @@
     </row>
     <row r="19" spans="2:7">
       <c r="D19" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -6165,7 +5830,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="D23" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -6180,7 +5845,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -6199,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -6211,7 +5876,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -6306,6 +5971,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="H5:M5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -6313,19 +5985,370 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="H5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DD60A9-8491-40AE-AB55-F36581F68447}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB90A09-7A76-4B4B-953B-6C2262A6B79D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6346,7 +6369,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6355,7 +6378,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -6369,32 +6392,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -6430,25 +6453,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -6489,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -6507,7 +6530,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -6519,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -6537,7 +6560,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -6549,13 +6572,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -6569,7 +6592,7 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6577,7 +6600,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6590,7 +6613,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6610,7 +6633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BD5356-4022-4547-80BB-5268F2C7671C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6631,7 +6654,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6640,7 +6663,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -6654,32 +6677,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -6715,25 +6738,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -6777,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -6795,7 +6818,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -6807,7 +6830,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -6825,7 +6848,7 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -6837,7 +6860,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -6847,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6860,7 +6883,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6868,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6876,7 +6899,7 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6884,7 +6907,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6900,7 +6923,7 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -6913,7 +6936,7 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -6921,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -6934,7 +6957,7 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6954,7 +6977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5331D46D-C316-4686-919B-959A068BD9B4}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6973,7 +6996,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -6982,7 +7005,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -6996,32 +7019,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -7057,25 +7080,25 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -7116,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -7134,7 +7157,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -7146,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -7164,7 +7187,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -7176,7 +7199,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7186,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7199,7 +7222,7 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7207,12 +7230,12 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7225,7 +7248,7 @@
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7245,7 +7268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C8145F-D1C5-42C9-A100-D5B6C67D6EEE}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7266,7 +7289,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7275,7 +7298,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -7289,32 +7312,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -7353,25 +7376,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -7412,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -7421,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -7430,7 +7453,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -7439,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7449,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7457,7 +7480,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7465,7 +7488,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -7474,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7482,7 +7505,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7490,7 +7513,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7516,7 +7539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC306D-1CBE-46C3-B4A9-9DC4D56B14A9}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7537,7 +7560,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7546,7 +7569,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -7560,32 +7583,32 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -7624,25 +7647,25 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -7683,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -7692,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -7701,7 +7724,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -7710,7 +7733,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7720,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7728,7 +7751,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7736,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -7745,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7753,7 +7776,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7761,7 +7784,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7787,7 +7810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A366CC-89AC-4D29-BA50-FFB24D19FA87}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7795,7 +7818,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7808,7 +7831,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -7831,25 +7854,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -7867,7 +7890,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7891,7 +7914,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -7921,32 +7944,32 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -7976,13 +7999,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -8001,342 +8024,6 @@
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:L10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC5AAB2-C8DA-4438-BA37-2B6DDD37E50E}">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="1">
-        <v>100</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="C17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8365,7 +8052,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -8388,28 +8075,28 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -8441,12 +8128,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
@@ -8478,11 +8165,11 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
@@ -8612,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -8634,7 +8321,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -8644,7 +8331,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -8654,7 +8341,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -8673,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -8685,7 +8372,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -8733,7 +8420,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -8756,38 +8443,38 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
@@ -8797,22 +8484,22 @@
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
@@ -8822,12 +8509,12 @@
       <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
@@ -8873,11 +8560,11 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
@@ -8933,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -8957,7 +8644,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -9029,10 +8716,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9229,22 +8916,26 @@
         <v>58</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
@@ -9257,16 +8948,12 @@
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9295,7 +8982,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -9318,28 +9005,28 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -9385,11 +9072,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -9408,11 +9095,11 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
@@ -9429,11 +9116,11 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
@@ -9490,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -9518,7 +9205,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -9538,7 +9225,7 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F21" s="9"/>
     </row>
@@ -9596,6 +9283,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B5:D5"/>
@@ -9612,15 +9308,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9649,7 +9336,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -9658,7 +9345,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -9672,38 +9359,38 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
@@ -9713,22 +9400,22 @@
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
@@ -9738,22 +9425,22 @@
       <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
         <v>92</v>
       </c>
@@ -9763,12 +9450,12 @@
       <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13">
       <c r="G8" s="8"/>
@@ -9789,11 +9476,11 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
@@ -9846,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -9855,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -9879,7 +9566,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -9892,7 +9579,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -9901,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -9913,7 +9600,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -9922,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -9931,7 +9618,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -9948,7 +9635,7 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -9981,10 +9668,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9998,7 +9685,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -10021,28 +9708,28 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -10088,11 +9775,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -10111,11 +9798,11 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
@@ -10133,7 +9820,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
@@ -10153,324 +9840,347 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7">
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>264</v>
-      </c>
+    <row r="20" spans="1:13">
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" t="s">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D23" t="s">
+        <v>245</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
+    <row r="24" spans="1:13">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" t="s">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="D27" t="s">
+        <v>292</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
+    <row r="28" spans="1:13">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:7">
       <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="B31">
+    <row r="32" spans="1:13">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
     </row>
+    <row r="40" spans="2:4">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
+  <mergeCells count="29">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F8:M8"/>
     <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:M9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10481,10 +10191,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10498,7 +10208,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -10521,28 +10231,28 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -10588,11 +10298,11 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>91</v>
       </c>
@@ -10611,11 +10321,11 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
@@ -10633,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
@@ -10653,234 +10363,288 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="B22">
+    <row r="23" spans="1:13">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23">
+    <row r="24" spans="1:13">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24">
+    <row r="25" spans="1:13">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25">
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26">
+    <row r="27" spans="1:13">
+      <c r="B27">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="B27">
+    <row r="28" spans="1:13">
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28">
+    <row r="29" spans="1:13">
+      <c r="B29">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:13">
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
     </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:M11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:M8"/>
     <mergeCell ref="B4:D4"/>
@@ -10888,26 +10652,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10936,7 +10680,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -10945,7 +10689,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -10959,25 +10703,25 @@
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -10994,166 +10738,166 @@
       <c r="F5" s="12">
         <v>128</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+        <v>175</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="12">
         <v>128</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="12">
         <v>128</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="12">
         <v>1024</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="12">
         <v>1024</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="12">
         <v>10</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
+      <c r="G11" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12">
       <c r="F13" s="8"/>
@@ -11174,169 +10918,169 @@
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
@@ -11349,12 +11093,12 @@
       <c r="D24" s="26"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="25"/>
@@ -11406,7 +11150,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -11417,7 +11161,7 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -11429,7 +11173,7 @@
       </c>
       <c r="D33" s="25"/>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11441,7 +11185,7 @@
       </c>
       <c r="D34" s="25"/>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -11453,7 +11197,7 @@
       </c>
       <c r="D35" s="25"/>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -11464,7 +11208,7 @@
         <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -11513,7 +11257,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C42" s="9"/>
     </row>
@@ -11522,7 +11266,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11538,11 +11282,41 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B16:D16"/>
@@ -11559,36 +11333,6 @@
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
